--- a/Docs/Test Scenario.xlsx
+++ b/Docs/Test Scenario.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="56">
   <si>
     <t>Scenario</t>
   </si>
@@ -183,15 +183,6 @@
     <t>Add System User</t>
   </si>
   <si>
-    <t>User Click To Reach The Page</t>
-  </si>
-  <si>
-    <t>failed</t>
-  </si>
-  <si>
-    <t>There Is No Icon For This Page</t>
-  </si>
-  <si>
     <t>User Fill All Fields</t>
   </si>
   <si>
@@ -238,6 +229,9 @@
   </si>
   <si>
     <t>Click Delete Button Appear In The Material Search Result</t>
+  </si>
+  <si>
+    <t>User Click Add Icon</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="سمة Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -711,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A90" sqref="A90"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -887,7 +881,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>5</v>
@@ -1090,7 +1084,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>5</v>
@@ -1152,7 +1146,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>5</v>
@@ -1206,18 +1200,15 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="3" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>5</v>
@@ -1225,7 +1216,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>5</v>
@@ -1257,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C70" s="7"/>
     </row>
@@ -1271,7 +1262,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>5</v>
@@ -1279,7 +1270,7 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>5</v>
@@ -1287,7 +1278,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
@@ -1295,7 +1286,7 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>5</v>
@@ -1303,7 +1294,7 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>5</v>
@@ -1327,7 +1318,7 @@
         <v>0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C79" s="7"/>
     </row>
@@ -1341,7 +1332,7 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>5</v>
@@ -1349,7 +1340,7 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>5</v>
@@ -1373,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C85" s="7"/>
     </row>
@@ -1387,7 +1378,7 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>5</v>
@@ -1395,7 +1386,7 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>5</v>
@@ -1416,6 +1407,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B85:C85"/>
     <mergeCell ref="B34:C34"/>
@@ -1423,11 +1419,6 @@
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="B62:C62"/>
     <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
